--- a/prep_data/2025_punt-returns_offense.xlsx
+++ b/prep_data/2025_punt-returns_offense.xlsx
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="E2" t="n">
-        <v>18.95</v>
+        <v>17.41</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -508,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>27.7</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="3">
@@ -518,16 +518,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E3" t="n">
-        <v>18.84</v>
+        <v>17.29</v>
       </c>
       <c r="F3" t="n">
         <v>16</v>
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>27.5</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="4">
@@ -549,19 +549,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E4" t="n">
-        <v>16.9</v>
+        <v>16.19</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
         <v>87</v>
@@ -570,38 +570,38 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>263</v>
+        <v>405</v>
       </c>
       <c r="E5" t="n">
-        <v>14.61</v>
+        <v>15.58</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>20.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -611,16 +611,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="E6" t="n">
-        <v>14.59</v>
+        <v>14.1</v>
       </c>
       <c r="F6" t="n">
         <v>21</v>
@@ -632,38 +632,38 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>32.5</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="E7" t="n">
-        <v>14.21</v>
+        <v>13.85</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>26.2</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E8" t="n">
-        <v>13.97</v>
+        <v>13.41</v>
       </c>
       <c r="F8" t="n">
         <v>12</v>
@@ -694,193 +694,193 @@
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>34.4</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="E9" t="n">
-        <v>12.47</v>
+        <v>13.08</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>14.4</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="E10" t="n">
-        <v>12.1</v>
+        <v>12.38</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>19.5</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>178</v>
+        <v>280</v>
       </c>
       <c r="E11" t="n">
-        <v>11.87</v>
+        <v>12.17</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>13.7</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="E12" t="n">
-        <v>11.68</v>
+        <v>11.56</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.8</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="E13" t="n">
-        <v>11.56</v>
+        <v>11.11</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24</v>
+      </c>
+      <c r="D14" t="n">
+        <v>264</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" t="n">
         <v>13</v>
       </c>
-      <c r="C14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" t="n">
-        <v>223</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
       <c r="G14" t="n">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>17.2</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="15">
@@ -890,19 +890,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="E15" t="n">
-        <v>10.97</v>
+        <v>10.94</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
         <v>53</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>24.5</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="16">
@@ -921,19 +921,19 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" t="n">
+        <v>216</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F16" t="n">
         <v>13</v>
-      </c>
-      <c r="C16" t="n">
-        <v>17</v>
-      </c>
-      <c r="D16" t="n">
-        <v>171</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="F16" t="n">
-        <v>11</v>
       </c>
       <c r="G16" t="n">
         <v>22</v>
@@ -942,317 +942,317 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.2</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="E17" t="n">
-        <v>9.859999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>22</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="E18" t="n">
-        <v>9.789999999999999</v>
+        <v>9.93</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>14.3</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="E19" t="n">
-        <v>9.77</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>9.800000000000001</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="E20" t="n">
-        <v>9.35</v>
+        <v>9.4</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>169</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="F21" t="n">
         <v>20</v>
       </c>
-      <c r="D21" t="n">
-        <v>184</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
       <c r="G21" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>14.2</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E22" t="n">
-        <v>8.91</v>
+        <v>8.42</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>15.1</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="E23" t="n">
-        <v>8.74</v>
+        <v>8.41</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>12.8</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
         <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E24" t="n">
-        <v>8.550000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.5</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D25" t="n">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="E25" t="n">
-        <v>7.96</v>
+        <v>7.86</v>
       </c>
       <c r="F25" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>17.2</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="E26" t="n">
-        <v>7.45</v>
+        <v>7.53</v>
       </c>
       <c r="F26" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.3</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="27">
@@ -1262,84 +1262,84 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E27" t="n">
-        <v>6.96</v>
+        <v>7.35</v>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="E28" t="n">
-        <v>6.89</v>
+        <v>6.83</v>
       </c>
       <c r="F28" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D29" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E29" t="n">
-        <v>6.89</v>
+        <v>6.76</v>
       </c>
       <c r="F29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1351,32 +1351,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B30" t="n">
+        <v>15</v>
+      </c>
+      <c r="C30" t="n">
+        <v>22</v>
+      </c>
+      <c r="D30" t="n">
+        <v>147</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F30" t="n">
         <v>13</v>
       </c>
-      <c r="C30" t="n">
-        <v>18</v>
-      </c>
-      <c r="D30" t="n">
-        <v>114</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="F30" t="n">
-        <v>14</v>
-      </c>
       <c r="G30" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
         <v>18</v>
@@ -1398,7 +1398,7 @@
         <v>6.22</v>
       </c>
       <c r="F31" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G31" t="n">
         <v>33</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="32">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
         <v>26</v>
@@ -1429,7 +1429,7 @@
         <v>5.62</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
         <v>20</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>11.2</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D33" t="n">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E33" t="n">
-        <v>5.35</v>
+        <v>5.46</v>
       </c>
       <c r="F33" t="n">
         <v>12</v>
